--- a/Classification_model/Cross_validation/cross_vali_kfold.xlsx
+++ b/Classification_model/Cross_validation/cross_vali_kfold.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3680,6 +3680,433 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>k3_02</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[3 7 4]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>&lt;bound method Module.parameters of Net(
+  (linears): ModuleList(
+    (0): Linear(in_features=25, out_features=3, bias=True)
+    (1): Linear(in_features=3, out_features=7, bias=True)
+    (2): Linear(in_features=7, out_features=4, bias=True)
+    (3): Linear(in_features=4, out_features=4, bias=True)
+  )
+)&gt;</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>36.11856079101562</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1682586552685642</v>
+      </c>
+      <c r="N24" t="n">
+        <v>27</v>
+      </c>
+      <c r="O24" t="n">
+        <v>133.3680419921875</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.07564018449987206</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[[4 2 3 0]
+ [1 4 3 1]
+ [2 4 5 2]
+ [1 3 0 1]]</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[[44.44444444 22.22222222 33.33333333  0.        ]
+ [11.11111111 44.44444444 33.33333333 11.11111111]
+ [15.38461538 30.76923077 38.46153846 15.38461538]
+ [20.         60.          0.         20.        ]]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>60.0760498046875</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.4728695677457052</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>[1 0 0 2 0 1 1 1 0 1 1 3 3 1 3 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>[[3 3 0 0]
+ [1 2 1 1]
+ [1 5 0 0]
+ [0 1 0 2]]</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>[[50.         50.          0.          0.        ]
+ [20.         40.         20.         20.        ]
+ [16.66666667 83.33333333  0.          0.        ]
+ [ 0.         33.33333333  0.         66.66666667]]</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>41.48809814453125</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.3185930029073167</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>[3 0 2 1 2 2 3 1]</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>[[1 0 2 0]
+ [0 0 0 0]
+ [0 1 0 1]
+ [0 1 1 1]]</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>[[33.33333333  0.         66.66666667  0.        ]
+ [        nan         nan         nan         nan]
+ [ 0.         50.          0.         50.        ]
+ [ 0.         33.33333333 33.33333333 33.33333333]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>k3_03</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>42</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[11 23  4]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&lt;bound method Module.parameters of Net(
+  (linears): ModuleList(
+    (0): Linear(in_features=25, out_features=11, bias=True)
+    (1): Linear(in_features=11, out_features=23, bias=True)
+    (2): Linear(in_features=23, out_features=4, bias=True)
+    (3): Linear(in_features=4, out_features=4, bias=True)
+  )
+)&gt;</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>300</v>
+      </c>
+      <c r="K25" t="n">
+        <v>30</v>
+      </c>
+      <c r="L25" t="n">
+        <v>15.38278675079346</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2055445527610965</v>
+      </c>
+      <c r="N25" t="n">
+        <v>25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.325417518615723</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.1906354446780115</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[[6 0 2 1]
+ [6 1 1 1]
+ [6 3 2 2]
+ [2 0 1 2]]</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[[66.66666667  0.         22.22222222 11.11111111]
+ [66.66666667 11.11111111 11.11111111 11.11111111]
+ [46.15384615 23.07692308 15.38461538 15.38461538]
+ [40.          0.         20.         40.        ]]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>35</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7.044101715087891</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.475467397868503</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>[0 0 0 2 1 0 0 0 0 0 0 0 3 0 3 0 0 3 1 0]</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>[[5 1 0 0]
+ [4 0 1 0]
+ [4 1 0 1]
+ [1 0 0 2]]</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>[[83.33333333 16.66666667  0.          0.        ]
+ [80.          0.         20.          0.        ]
+ [66.66666667 16.66666667  0.         16.66666667]
+ [33.33333333  0.          0.         66.66666667]]</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.4956294298172</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.539950799624328</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>[0 0 2 0 0 0 1 2]</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>[[3 0 0 0]
+ [0 0 0 0]
+ [1 0 1 0]
+ [1 1 1 0]]</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>[[100.           0.           0.           0.        ]
+ [         nan          nan          nan          nan]
+ [ 50.           0.          50.           0.        ]
+ [ 33.33333333  33.33333333  33.33333333   0.        ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>k3_04</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>42</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[12 11  4]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&lt;bound method Module.parameters of Net(
+  (linears): ModuleList(
+    (0): Linear(in_features=25, out_features=12, bias=True)
+    (1): Linear(in_features=12, out_features=11, bias=True)
+    (2): Linear(in_features=11, out_features=4, bias=True)
+    (3): Linear(in_features=4, out_features=4, bias=True)
+  )
+)&gt;</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4600</v>
+      </c>
+      <c r="K26" t="n">
+        <v>33</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.11787033081055</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2979509381683376</v>
+      </c>
+      <c r="N26" t="n">
+        <v>19</v>
+      </c>
+      <c r="O26" t="n">
+        <v>32.69798278808594</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.1113951900409954</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[[ 9  0  0  0]
+ [ 7  0  2  0]
+ [10  0  3  0]
+ [ 3  0  2  0]]</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[[100.           0.           0.           0.        ]
+ [ 77.77777778   0.          22.22222222   0.        ]
+ [ 76.92307692   0.          23.07692308   0.        ]
+ [ 60.           0.          40.           0.        ]]</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>30</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6.366759300231934</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1461995741852983</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 2 0]</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>[[5 0 1 0]
+ [5 0 0 0]
+ [5 0 1 0]
+ [2 0 1 0]]</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>[[ 83.33333333   0.          16.66666667   0.        ]
+ [100.           0.           0.           0.        ]
+ [ 83.33333333   0.          16.66666667   0.        ]
+ [ 66.66666667   0.          33.33333333   0.        ]]</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>4.367500782012939</v>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>[[3 0 0 0]
+ [0 0 0 0]
+ [2 0 0 0]
+ [3 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>[[100.   0.   0.   0.]
+ [ nan  nan  nan  nan]
+ [100.   0.   0.   0.]
+ [100.   0.   0.   0.]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
